--- a/tests/untitled.msh.xlsx
+++ b/tests/untitled.msh.xlsx
@@ -13,9 +13,10 @@
     <sheet name="elementsections" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="materials" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="supports" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="pointloads" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="lineloads" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="arealoads" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="loadcases" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="pointloads" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="lineloads" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="arealoads" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,8 +465,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -478,8 +481,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -492,8 +497,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -506,8 +513,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0.1249999999997731</v>
@@ -520,8 +529,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0.2499999999994107</v>
@@ -534,8 +545,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0.374999999999046</v>
@@ -548,8 +561,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0.4999999999986922</v>
@@ -562,8 +577,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0.6249999999990107</v>
@@ -576,8 +593,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0.7499999999993404</v>
@@ -590,8 +609,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0.8749999999996702</v>
@@ -604,8 +625,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -618,8 +641,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -632,8 +657,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -646,8 +673,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -660,8 +689,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -674,8 +705,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -688,8 +721,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -702,8 +737,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0.8999999999995836</v>
@@ -716,8 +753,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0.7999999999999998</v>
@@ -730,8 +769,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0.7000000000006934</v>
@@ -744,8 +785,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0.6000000000013869</v>
@@ -758,8 +801,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0.5000000000020587</v>
@@ -772,8 +817,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0.4000000000016644</v>
@@ -786,8 +833,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0.3000000000012483</v>
@@ -800,8 +849,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0.2000000000008322</v>
@@ -814,8 +865,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0.100000000000416</v>
@@ -828,8 +881,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0.8946399137755333</v>
@@ -842,8 +897,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0.5371709787493768</v>
@@ -856,8 +913,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0.7018643898793449</v>
@@ -870,8 +929,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0.7366025403788833</v>
@@ -884,8 +945,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0.433868990753553</v>
@@ -898,8 +961,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0.8689788301800729</v>
@@ -912,8 +977,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0.6354538980851356</v>
@@ -926,8 +993,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0.6828037963686989</v>
@@ -940,8 +1009,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0.5696487512372377</v>
@@ -954,8 +1025,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0.769811068035102</v>
@@ -968,8 +1041,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0.4431643875576202</v>
@@ -982,8 +1057,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0.8995558867722415</v>
@@ -996,8 +1073,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0.7817184985493333</v>
@@ -1010,8 +1089,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0.894519048172199</v>
@@ -1024,8 +1105,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0.3056049536586914</v>
@@ -1038,8 +1121,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0.5678210262941258</v>
@@ -1052,8 +1137,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>0.8893005341381466</v>
@@ -1066,8 +1153,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0.8195448111883705</v>
@@ -1080,8 +1169,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0.9086192757274203</v>
@@ -1094,8 +1185,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>0.2017642094507291</v>
@@ -1108,8 +1201,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>0.6662997872901755</v>
@@ -1122,8 +1217,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>0.3570612555880689</v>
@@ -1136,8 +1233,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>0.909130091930294</v>
@@ -1150,8 +1249,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>0.7966480225741488</v>
@@ -1164,8 +1265,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>0.8023733928381709</v>
@@ -1178,8 +1281,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>0.4816524372169555</v>
@@ -1189,6 +1294,2033 @@
       </c>
       <c r="D53" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>element</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loadcase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>px</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>py</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pz</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>area-30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>area-31</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>area-32</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>area-33</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>area-34</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>area-35</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>area-36</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>area-37</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>area-38</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>area-39</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>area-40</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>area-41</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>area-42</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>area-43</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>area-44</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>area-45</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>area-46</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>area-47</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>area-48</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>area-49</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>area-50</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>area-51</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>area-52</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>area-53</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>area-54</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>area-55</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>area-56</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>area-57</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>area-58</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>area-59</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>area-60</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>area-61</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>area-62</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>area-63</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>area-64</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>area-65</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>area-66</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>area-67</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>area-68</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>area-69</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>area-70</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>area-71</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>area-72</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>area-73</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>area-74</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>area-75</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>area-76</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>area-77</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>area-78</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>area-79</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>area-80</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>area-81</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>area-82</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>area-83</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>area-84</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>area-85</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>area-86</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>area-87</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>area-88</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>area-89</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>area-90</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>area-91</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>area-92</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>area-93</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>area-94</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>area-95</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>area-96</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>area-97</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>area-98</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>area-99</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>area-100</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>area-101</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>area-102</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>area-103</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>area-104</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>area-105</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-15</v>
       </c>
     </row>
   </sheetData>
@@ -1248,11 +3380,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -1267,11 +3403,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -1286,11 +3426,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -1305,11 +3449,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -1324,11 +3472,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
@@ -1343,11 +3495,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
@@ -1362,11 +3518,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
@@ -1381,11 +3541,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
@@ -1400,11 +3564,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
@@ -1419,11 +3587,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
@@ -1438,11 +3610,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
@@ -1457,11 +3633,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>13</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
@@ -1476,11 +3656,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>14</v>
-      </c>
-      <c r="D14" t="n">
-        <v>15</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
@@ -1495,11 +3679,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>15</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
@@ -1514,11 +3702,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>16</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
@@ -1533,11 +3725,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>17</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
@@ -1552,11 +3748,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>18</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
@@ -1571,11 +3771,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" t="n">
-        <v>19</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
@@ -1590,11 +3794,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
@@ -1609,11 +3817,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr"/>
     </row>
@@ -1628,11 +3840,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>21</v>
-      </c>
-      <c r="D22" t="n">
-        <v>22</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr"/>
     </row>
@@ -1647,11 +3863,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>22</v>
-      </c>
-      <c r="D23" t="n">
-        <v>23</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr"/>
     </row>
@@ -1666,11 +3886,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>23</v>
-      </c>
-      <c r="D24" t="n">
-        <v>24</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr"/>
     </row>
@@ -1685,11 +3909,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>24</v>
-      </c>
-      <c r="D25" t="n">
-        <v>25</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr"/>
     </row>
@@ -1704,11 +3932,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" t="n">
-        <v>26</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr"/>
     </row>
@@ -1723,11 +3955,15 @@
           <t>line2</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>26</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr"/>
     </row>
@@ -1742,14 +3978,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>32</v>
-      </c>
-      <c r="D28" t="n">
-        <v>30</v>
-      </c>
-      <c r="E28" t="n">
-        <v>36</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1763,14 +4005,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>32</v>
-      </c>
-      <c r="D29" t="n">
-        <v>36</v>
-      </c>
-      <c r="E29" t="n">
-        <v>43</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1784,14 +4032,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>39</v>
-      </c>
-      <c r="D30" t="n">
-        <v>29</v>
-      </c>
-      <c r="E30" t="n">
-        <v>44</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1805,14 +4059,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>29</v>
-      </c>
-      <c r="D31" t="n">
-        <v>39</v>
-      </c>
-      <c r="E31" t="n">
-        <v>47</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1826,14 +4086,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" t="n">
-        <v>26</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1847,14 +4113,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>18</v>
-      </c>
-      <c r="D33" t="n">
-        <v>17</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1868,14 +4140,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>42</v>
-      </c>
-      <c r="D34" t="n">
-        <v>29</v>
-      </c>
-      <c r="E34" t="n">
-        <v>47</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1889,14 +4167,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>38</v>
-      </c>
-      <c r="D35" t="n">
-        <v>39</v>
-      </c>
-      <c r="E35" t="n">
-        <v>44</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1910,14 +4194,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>35</v>
-      </c>
-      <c r="D36" t="n">
-        <v>42</v>
-      </c>
-      <c r="E36" t="n">
-        <v>47</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1931,14 +4221,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>30</v>
-      </c>
-      <c r="D37" t="n">
-        <v>33</v>
-      </c>
-      <c r="E37" t="n">
-        <v>36</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1952,14 +4248,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>33</v>
-      </c>
-      <c r="D38" t="n">
-        <v>34</v>
-      </c>
-      <c r="E38" t="n">
-        <v>36</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1973,14 +4275,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>30</v>
-      </c>
-      <c r="D39" t="n">
-        <v>21</v>
-      </c>
-      <c r="E39" t="n">
-        <v>33</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1994,14 +4302,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>23</v>
-      </c>
-      <c r="D40" t="n">
-        <v>24</v>
-      </c>
-      <c r="E40" t="n">
-        <v>37</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2015,14 +4329,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>30</v>
-      </c>
-      <c r="D41" t="n">
-        <v>32</v>
-      </c>
-      <c r="E41" t="n">
-        <v>50</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2036,14 +4356,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>33</v>
-      </c>
-      <c r="D42" t="n">
-        <v>28</v>
-      </c>
-      <c r="E42" t="n">
-        <v>34</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2057,14 +4383,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>25</v>
-      </c>
-      <c r="D43" t="n">
-        <v>41</v>
-      </c>
-      <c r="E43" t="n">
-        <v>48</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2078,14 +4410,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>34</v>
-      </c>
-      <c r="D44" t="n">
-        <v>28</v>
-      </c>
-      <c r="E44" t="n">
-        <v>35</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2099,14 +4437,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>22</v>
-      </c>
-      <c r="D45" t="n">
-        <v>28</v>
-      </c>
-      <c r="E45" t="n">
-        <v>33</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2120,14 +4464,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>20</v>
-      </c>
-      <c r="D46" t="n">
-        <v>21</v>
-      </c>
-      <c r="E46" t="n">
-        <v>30</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2141,14 +4491,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>26</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" t="n">
-        <v>46</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2162,14 +4518,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>17</v>
-      </c>
-      <c r="D48" t="n">
-        <v>18</v>
-      </c>
-      <c r="E48" t="n">
-        <v>45</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2183,14 +4545,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>22</v>
-      </c>
-      <c r="D49" t="n">
-        <v>23</v>
-      </c>
-      <c r="E49" t="n">
-        <v>28</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2204,14 +4572,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>21</v>
-      </c>
-      <c r="D50" t="n">
-        <v>22</v>
-      </c>
-      <c r="E50" t="n">
-        <v>33</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2225,14 +4599,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>28</v>
-      </c>
-      <c r="D51" t="n">
-        <v>23</v>
-      </c>
-      <c r="E51" t="n">
-        <v>37</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2246,14 +4626,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>4</v>
-      </c>
-      <c r="D52" t="n">
-        <v>5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>46</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2267,14 +4653,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>16</v>
-      </c>
-      <c r="D53" t="n">
-        <v>17</v>
-      </c>
-      <c r="E53" t="n">
-        <v>45</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2288,14 +4680,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>35</v>
-      </c>
-      <c r="D54" t="n">
-        <v>28</v>
-      </c>
-      <c r="E54" t="n">
-        <v>37</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2309,14 +4707,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>40</v>
-      </c>
-      <c r="D55" t="n">
-        <v>19</v>
-      </c>
-      <c r="E55" t="n">
-        <v>50</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2330,14 +4734,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>11</v>
-      </c>
-      <c r="D56" t="n">
-        <v>12</v>
-      </c>
-      <c r="E56" t="n">
-        <v>38</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2351,14 +4761,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>25</v>
-      </c>
-      <c r="D57" t="n">
-        <v>26</v>
-      </c>
-      <c r="E57" t="n">
-        <v>46</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2372,14 +4788,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>18</v>
-      </c>
-      <c r="D58" t="n">
-        <v>19</v>
-      </c>
-      <c r="E58" t="n">
-        <v>45</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2393,14 +4815,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>12</v>
-      </c>
-      <c r="D59" t="n">
-        <v>13</v>
-      </c>
-      <c r="E59" t="n">
-        <v>27</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2414,14 +4842,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>29</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2435,14 +4869,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>7</v>
-      </c>
-      <c r="D61" t="n">
-        <v>8</v>
-      </c>
-      <c r="E61" t="n">
-        <v>42</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2456,14 +4896,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>14</v>
-      </c>
-      <c r="D62" t="n">
-        <v>15</v>
-      </c>
-      <c r="E62" t="n">
-        <v>32</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2477,14 +4923,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>13</v>
-      </c>
-      <c r="D63" t="n">
-        <v>14</v>
-      </c>
-      <c r="E63" t="n">
-        <v>43</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2498,14 +4950,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>12</v>
-      </c>
-      <c r="D64" t="n">
-        <v>27</v>
-      </c>
-      <c r="E64" t="n">
-        <v>38</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2519,14 +4977,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>24</v>
-      </c>
-      <c r="D65" t="n">
-        <v>25</v>
-      </c>
-      <c r="E65" t="n">
-        <v>48</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2540,14 +5004,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>7</v>
-      </c>
-      <c r="E66" t="n">
-        <v>31</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2561,14 +5031,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>48</v>
-      </c>
-      <c r="D67" t="n">
-        <v>31</v>
-      </c>
-      <c r="E67" t="n">
-        <v>52</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2582,14 +5058,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>38</v>
-      </c>
-      <c r="D68" t="n">
-        <v>27</v>
-      </c>
-      <c r="E68" t="n">
-        <v>39</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2603,14 +5085,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>15</v>
-      </c>
-      <c r="D69" t="n">
-        <v>16</v>
-      </c>
-      <c r="E69" t="n">
-        <v>40</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -2624,14 +5112,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6</v>
-      </c>
-      <c r="E70" t="n">
-        <v>41</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -2645,14 +5139,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>8</v>
-      </c>
-      <c r="D71" t="n">
-        <v>29</v>
-      </c>
-      <c r="E71" t="n">
-        <v>42</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -2666,14 +5166,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>27</v>
-      </c>
-      <c r="D72" t="n">
-        <v>13</v>
-      </c>
-      <c r="E72" t="n">
-        <v>43</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -2687,14 +5193,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>14</v>
-      </c>
-      <c r="D73" t="n">
-        <v>32</v>
-      </c>
-      <c r="E73" t="n">
-        <v>43</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -2708,14 +5220,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>31</v>
-      </c>
-      <c r="D74" t="n">
-        <v>7</v>
-      </c>
-      <c r="E74" t="n">
-        <v>42</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -2729,14 +5247,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>32</v>
-      </c>
-      <c r="D75" t="n">
-        <v>15</v>
-      </c>
-      <c r="E75" t="n">
-        <v>40</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -2750,14 +5274,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>29</v>
-      </c>
-      <c r="D76" t="n">
-        <v>9</v>
-      </c>
-      <c r="E76" t="n">
-        <v>44</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -2771,14 +5301,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>19</v>
-      </c>
-      <c r="D77" t="n">
-        <v>20</v>
-      </c>
-      <c r="E77" t="n">
-        <v>50</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -2792,14 +5328,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>6</v>
-      </c>
-      <c r="D78" t="n">
-        <v>31</v>
-      </c>
-      <c r="E78" t="n">
-        <v>41</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -2813,14 +5355,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>10</v>
-      </c>
-      <c r="E79" t="n">
-        <v>44</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2834,14 +5382,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>37</v>
-      </c>
-      <c r="D80" t="n">
-        <v>48</v>
-      </c>
-      <c r="E80" t="n">
-        <v>52</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -2855,14 +5409,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>36</v>
-      </c>
-      <c r="D81" t="n">
-        <v>34</v>
-      </c>
-      <c r="E81" t="n">
-        <v>51</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -2876,14 +5436,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" t="n">
-        <v>11</v>
-      </c>
-      <c r="E82" t="n">
-        <v>49</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -2897,14 +5463,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>10</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>49</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2918,14 +5490,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>34</v>
-      </c>
-      <c r="D84" t="n">
-        <v>39</v>
-      </c>
-      <c r="E84" t="n">
-        <v>51</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -2939,14 +5517,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>19</v>
-      </c>
-      <c r="D85" t="n">
-        <v>40</v>
-      </c>
-      <c r="E85" t="n">
-        <v>45</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -2960,14 +5544,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>41</v>
-      </c>
-      <c r="D86" t="n">
-        <v>25</v>
-      </c>
-      <c r="E86" t="n">
-        <v>46</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -2981,14 +5571,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>39</v>
-      </c>
-      <c r="D87" t="n">
-        <v>34</v>
-      </c>
-      <c r="E87" t="n">
-        <v>47</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -3002,14 +5598,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>32</v>
-      </c>
-      <c r="D88" t="n">
-        <v>40</v>
-      </c>
-      <c r="E88" t="n">
-        <v>50</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3023,14 +5625,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>27</v>
-      </c>
-      <c r="D89" t="n">
-        <v>43</v>
-      </c>
-      <c r="E89" t="n">
-        <v>51</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -3044,14 +5652,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>37</v>
-      </c>
-      <c r="D90" t="n">
-        <v>24</v>
-      </c>
-      <c r="E90" t="n">
-        <v>48</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3065,14 +5679,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>34</v>
-      </c>
-      <c r="D91" t="n">
-        <v>35</v>
-      </c>
-      <c r="E91" t="n">
-        <v>47</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -3086,14 +5706,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>41</v>
-      </c>
-      <c r="D92" t="n">
-        <v>31</v>
-      </c>
-      <c r="E92" t="n">
-        <v>48</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -3107,14 +5733,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>43</v>
-      </c>
-      <c r="D93" t="n">
-        <v>36</v>
-      </c>
-      <c r="E93" t="n">
-        <v>51</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -3128,14 +5760,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>20</v>
-      </c>
-      <c r="D94" t="n">
-        <v>30</v>
-      </c>
-      <c r="E94" t="n">
-        <v>50</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3149,14 +5787,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>40</v>
-      </c>
-      <c r="D95" t="n">
-        <v>16</v>
-      </c>
-      <c r="E95" t="n">
-        <v>45</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -3170,14 +5814,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>5</v>
-      </c>
-      <c r="D96" t="n">
-        <v>41</v>
-      </c>
-      <c r="E96" t="n">
-        <v>46</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -3191,14 +5841,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>35</v>
-      </c>
-      <c r="D97" t="n">
-        <v>37</v>
-      </c>
-      <c r="E97" t="n">
-        <v>52</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -3212,14 +5868,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>11</v>
-      </c>
-      <c r="D98" t="n">
-        <v>38</v>
-      </c>
-      <c r="E98" t="n">
-        <v>49</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -3233,14 +5895,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>39</v>
-      </c>
-      <c r="D99" t="n">
-        <v>27</v>
-      </c>
-      <c r="E99" t="n">
-        <v>51</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -3254,14 +5922,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>44</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10</v>
-      </c>
-      <c r="E100" t="n">
-        <v>49</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -3275,14 +5949,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>38</v>
-      </c>
-      <c r="D101" t="n">
-        <v>44</v>
-      </c>
-      <c r="E101" t="n">
-        <v>49</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -3296,14 +5976,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>31</v>
-      </c>
-      <c r="D102" t="n">
-        <v>42</v>
-      </c>
-      <c r="E102" t="n">
-        <v>52</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -3317,14 +6003,20 @@
           <t>area3</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>42</v>
-      </c>
-      <c r="D103" t="n">
-        <v>35</v>
-      </c>
-      <c r="E103" t="n">
-        <v>52</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +7473,11 @@
           <t>concrete</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>isotropic</t>
+        </is>
+      </c>
       <c r="C2" t="n">
         <v>30000000</v>
       </c>
@@ -4804,7 +7500,11 @@
           <t>steel</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>isotropic</t>
+        </is>
+      </c>
       <c r="C3" t="n">
         <v>200000000</v>
       </c>
@@ -5188,7 +7888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5199,98 +7899,180 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>loadcase</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>loadcase</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>fx</t>
+          <t>title</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>fy</t>
+          <t>case</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>fz</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mx</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>my</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>mz</t>
+          <t>gravity</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dead</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DEAD</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEAD</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>dead</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>-100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>live</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>snow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wx</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wy</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wx-</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wy-</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5305,7 +8087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5316,7 +8098,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>element</t>
+          <t>point</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -5326,77 +8108,88 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>fx</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>fx</t>
+          <t>fy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>fy</t>
+          <t>fz</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>fz</t>
+          <t>mx</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mx</t>
+          <t>my</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mz</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>line-1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>DEAD</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F2" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>line-2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>DEAD</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F3" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5411,7 +8204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5437,24 +8230,29 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>px</t>
+          <t>fx</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>py</t>
+          <t>fy</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pz</t>
+          <t>fz</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mx</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>area-1</t>
+          <t>line-4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5462,7 +8260,11 @@
           <t>DEAD</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
@@ -5470,7 +8272,445 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-15</v>
+        <v>-20</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>line-5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>line-6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>line-7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>line-8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>line-9</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>line-10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>line-11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>line-12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>line-13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>line-14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>line-15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>line-16</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>line-17</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>line-18</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>line-19</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DEAD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
